--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gal-Galr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gal-Galr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +525,1549 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.834299696131709</v>
+        <v>4.725159666666667</v>
       </c>
       <c r="H2">
-        <v>0.834299696131709</v>
+        <v>14.175479</v>
       </c>
       <c r="I2">
-        <v>0.03362412415557103</v>
+        <v>0.1172822960752866</v>
       </c>
       <c r="J2">
-        <v>0.03362412415557103</v>
+        <v>0.1616684039777957</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.357470733807393</v>
+        <v>0.3296756666666667</v>
       </c>
       <c r="N2">
-        <v>0.357470733807393</v>
+        <v>0.9890270000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1973398752343223</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2076175725739006</v>
       </c>
       <c r="Q2">
-        <v>0.298237724591487</v>
+        <v>1.557770163214778</v>
       </c>
       <c r="R2">
-        <v>0.298237724591487</v>
+        <v>14.019931468933</v>
       </c>
       <c r="S2">
-        <v>0.03362412415557103</v>
+        <v>0.02314447367469191</v>
       </c>
       <c r="T2">
-        <v>0.03362412415557103</v>
+        <v>0.03356520159576668</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.640358668133363</v>
+        <v>4.725159666666667</v>
       </c>
       <c r="H3">
-        <v>0.640358668133363</v>
+        <v>14.175479</v>
       </c>
       <c r="I3">
-        <v>0.02580787151337183</v>
+        <v>0.1172822960752866</v>
       </c>
       <c r="J3">
-        <v>0.02580787151337183</v>
+        <v>0.1616684039777957</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.357470733807393</v>
+        <v>0.5017509999999999</v>
       </c>
       <c r="N3">
-        <v>0.357470733807393</v>
+        <v>1.505253</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.3003420930026068</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3159842693572386</v>
       </c>
       <c r="Q3">
-        <v>0.2289094829975581</v>
+        <v>2.370853587909667</v>
       </c>
       <c r="R3">
-        <v>0.2289094829975581</v>
+        <v>21.337682291187</v>
       </c>
       <c r="S3">
-        <v>0.02580787151337183</v>
+        <v>0.03522481027540299</v>
       </c>
       <c r="T3">
-        <v>0.02580787151337183</v>
+        <v>0.05108467250907466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.614709482563235</v>
+        <v>4.725159666666667</v>
       </c>
       <c r="H4">
-        <v>0.614709482563235</v>
+        <v>14.175479</v>
       </c>
       <c r="I4">
-        <v>0.0247741525702894</v>
+        <v>0.1172822960752866</v>
       </c>
       <c r="J4">
-        <v>0.0247741525702894</v>
+        <v>0.1616684039777957</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.357470733807393</v>
+        <v>0.203121</v>
       </c>
       <c r="N4">
-        <v>0.357470733807393</v>
+        <v>0.609363</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1215857791469922</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1279181123228686</v>
       </c>
       <c r="Q4">
-        <v>0.2197406498102425</v>
+        <v>0.9597791566530001</v>
       </c>
       <c r="R4">
-        <v>0.2197406498102425</v>
+        <v>8.638012409877</v>
       </c>
       <c r="S4">
-        <v>0.0247741525702894</v>
+        <v>0.01425985934846195</v>
       </c>
       <c r="T4">
-        <v>0.0247741525702894</v>
+        <v>0.02068031705909057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>4.725159666666667</v>
+      </c>
+      <c r="H5">
+        <v>14.175479</v>
+      </c>
+      <c r="I5">
+        <v>0.1172822960752866</v>
+      </c>
+      <c r="J5">
+        <v>0.1616684039777957</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.3879516666666666</v>
+      </c>
+      <c r="N5">
+        <v>1.163855</v>
+      </c>
+      <c r="O5">
+        <v>0.2322231855053928</v>
+      </c>
+      <c r="P5">
+        <v>0.2443176474737263</v>
+      </c>
+      <c r="Q5">
+        <v>1.833133567949444</v>
+      </c>
+      <c r="R5">
+        <v>16.498202111545</v>
+      </c>
+      <c r="S5">
+        <v>0.02723566839798968</v>
+      </c>
+      <c r="T5">
+        <v>0.03949844413068705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>4.725159666666667</v>
+      </c>
+      <c r="H6">
+        <v>14.175479</v>
+      </c>
+      <c r="I6">
+        <v>0.1172822960752866</v>
+      </c>
+      <c r="J6">
+        <v>0.1616684039777957</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.248099</v>
+      </c>
+      <c r="N6">
+        <v>0.496198</v>
+      </c>
+      <c r="O6">
+        <v>0.1485090671106859</v>
+      </c>
+      <c r="P6">
+        <v>0.1041623982722659</v>
+      </c>
+      <c r="Q6">
+        <v>1.172307388140333</v>
+      </c>
+      <c r="R6">
+        <v>7.033844328842</v>
+      </c>
+      <c r="S6">
+        <v>0.01741748437874007</v>
+      </c>
+      <c r="T6">
+        <v>0.01683976868317673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.9205450000000001</v>
+      </c>
+      <c r="H7">
+        <v>2.761635</v>
+      </c>
+      <c r="I7">
+        <v>0.02284867366541012</v>
+      </c>
+      <c r="J7">
+        <v>0.03149587557635405</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.3296756666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.9890270000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.1973398752343223</v>
+      </c>
+      <c r="P7">
+        <v>0.2076175725739006</v>
+      </c>
+      <c r="Q7">
+        <v>0.3034812865716667</v>
+      </c>
+      <c r="R7">
+        <v>2.731331579145</v>
+      </c>
+      <c r="S7">
+        <v>0.004508954410401777</v>
+      </c>
+      <c r="T7">
+        <v>0.006539097233252232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9205450000000001</v>
+      </c>
+      <c r="H8">
+        <v>2.761635</v>
+      </c>
+      <c r="I8">
+        <v>0.02284867366541012</v>
+      </c>
+      <c r="J8">
+        <v>0.03149587557635405</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.5017509999999999</v>
+      </c>
+      <c r="N8">
+        <v>1.505253</v>
+      </c>
+      <c r="O8">
+        <v>0.3003420930026068</v>
+      </c>
+      <c r="P8">
+        <v>0.3159842693572386</v>
+      </c>
+      <c r="Q8">
+        <v>0.461884374295</v>
+      </c>
+      <c r="R8">
+        <v>4.156959368655</v>
+      </c>
+      <c r="S8">
+        <v>0.006862418471002817</v>
+      </c>
+      <c r="T8">
+        <v>0.009952201231760729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>22.7231653293995</v>
-      </c>
-      <c r="H5">
-        <v>22.7231653293995</v>
-      </c>
-      <c r="I5">
-        <v>0.9157938517607678</v>
-      </c>
-      <c r="J5">
-        <v>0.9157938517607678</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.357470733807393</v>
-      </c>
-      <c r="N5">
-        <v>0.357470733807393</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>8.12286658472715</v>
-      </c>
-      <c r="R5">
-        <v>8.12286658472715</v>
-      </c>
-      <c r="S5">
-        <v>0.9157938517607678</v>
-      </c>
-      <c r="T5">
-        <v>0.9157938517607678</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9205450000000001</v>
+      </c>
+      <c r="H9">
+        <v>2.761635</v>
+      </c>
+      <c r="I9">
+        <v>0.02284867366541012</v>
+      </c>
+      <c r="J9">
+        <v>0.03149587557635405</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.203121</v>
+      </c>
+      <c r="N9">
+        <v>0.609363</v>
+      </c>
+      <c r="O9">
+        <v>0.1215857791469922</v>
+      </c>
+      <c r="P9">
+        <v>0.1279181123228686</v>
+      </c>
+      <c r="Q9">
+        <v>0.186982020945</v>
+      </c>
+      <c r="R9">
+        <v>1.682838188505</v>
+      </c>
+      <c r="S9">
+        <v>0.002778073790084252</v>
+      </c>
+      <c r="T9">
+        <v>0.004028892949683152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9205450000000001</v>
+      </c>
+      <c r="H10">
+        <v>2.761635</v>
+      </c>
+      <c r="I10">
+        <v>0.02284867366541012</v>
+      </c>
+      <c r="J10">
+        <v>0.03149587557635405</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3879516666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.163855</v>
+      </c>
+      <c r="O10">
+        <v>0.2322231855053928</v>
+      </c>
+      <c r="P10">
+        <v>0.2443176474737263</v>
+      </c>
+      <c r="Q10">
+        <v>0.3571269669916667</v>
+      </c>
+      <c r="R10">
+        <v>3.214142702925</v>
+      </c>
+      <c r="S10">
+        <v>0.005305991783154716</v>
+      </c>
+      <c r="T10">
+        <v>0.007694998225940014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9205450000000001</v>
+      </c>
+      <c r="H11">
+        <v>2.761635</v>
+      </c>
+      <c r="I11">
+        <v>0.02284867366541012</v>
+      </c>
+      <c r="J11">
+        <v>0.03149587557635405</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.248099</v>
+      </c>
+      <c r="N11">
+        <v>0.496198</v>
+      </c>
+      <c r="O11">
+        <v>0.1485090671106859</v>
+      </c>
+      <c r="P11">
+        <v>0.1041623982722659</v>
+      </c>
+      <c r="Q11">
+        <v>0.228386293955</v>
+      </c>
+      <c r="R11">
+        <v>1.37031776373</v>
+      </c>
+      <c r="S11">
+        <v>0.003393235210766552</v>
+      </c>
+      <c r="T11">
+        <v>0.003280685935717923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7249216666666666</v>
+      </c>
+      <c r="H12">
+        <v>2.174765</v>
+      </c>
+      <c r="I12">
+        <v>0.01799314383832607</v>
+      </c>
+      <c r="J12">
+        <v>0.02480274469573626</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.3296756666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.9890270000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.1973398752343223</v>
+      </c>
+      <c r="P12">
+        <v>0.2076175725739006</v>
+      </c>
+      <c r="Q12">
+        <v>0.2389890337394444</v>
+      </c>
+      <c r="R12">
+        <v>2.150901303655</v>
+      </c>
+      <c r="S12">
+        <v>0.003550764760128481</v>
+      </c>
+      <c r="T12">
+        <v>0.005149485646898952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7249216666666666</v>
+      </c>
+      <c r="H13">
+        <v>2.174765</v>
+      </c>
+      <c r="I13">
+        <v>0.01799314383832607</v>
+      </c>
+      <c r="J13">
+        <v>0.02480274469573626</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.5017509999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.505253</v>
+      </c>
+      <c r="O13">
+        <v>0.3003420930026068</v>
+      </c>
+      <c r="P13">
+        <v>0.3159842693572386</v>
+      </c>
+      <c r="Q13">
+        <v>0.3637301711716666</v>
+      </c>
+      <c r="R13">
+        <v>3.273571540544999</v>
+      </c>
+      <c r="S13">
+        <v>0.00540409848009981</v>
+      </c>
+      <c r="T13">
+        <v>0.007837277160736348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7249216666666666</v>
+      </c>
+      <c r="H14">
+        <v>2.174765</v>
+      </c>
+      <c r="I14">
+        <v>0.01799314383832607</v>
+      </c>
+      <c r="J14">
+        <v>0.02480274469573626</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.203121</v>
+      </c>
+      <c r="N14">
+        <v>0.609363</v>
+      </c>
+      <c r="O14">
+        <v>0.1215857791469922</v>
+      </c>
+      <c r="P14">
+        <v>0.1279181123228686</v>
+      </c>
+      <c r="Q14">
+        <v>0.147246813855</v>
+      </c>
+      <c r="R14">
+        <v>1.325221324695</v>
+      </c>
+      <c r="S14">
+        <v>0.002187710412886778</v>
+      </c>
+      <c r="T14">
+        <v>0.003172720281904626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7249216666666666</v>
+      </c>
+      <c r="H15">
+        <v>2.174765</v>
+      </c>
+      <c r="I15">
+        <v>0.01799314383832607</v>
+      </c>
+      <c r="J15">
+        <v>0.02480274469573626</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3879516666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.163855</v>
+      </c>
+      <c r="O15">
+        <v>0.2322231855053928</v>
+      </c>
+      <c r="P15">
+        <v>0.2443176474737263</v>
+      </c>
+      <c r="Q15">
+        <v>0.2812345687861111</v>
+      </c>
+      <c r="R15">
+        <v>2.531111119074999</v>
+      </c>
+      <c r="S15">
+        <v>0.00417842517939281</v>
+      </c>
+      <c r="T15">
+        <v>0.006059748234953726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7249216666666666</v>
+      </c>
+      <c r="H16">
+        <v>2.174765</v>
+      </c>
+      <c r="I16">
+        <v>0.01799314383832607</v>
+      </c>
+      <c r="J16">
+        <v>0.02480274469573626</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.248099</v>
+      </c>
+      <c r="N16">
+        <v>0.496198</v>
+      </c>
+      <c r="O16">
+        <v>0.1485090671106859</v>
+      </c>
+      <c r="P16">
+        <v>0.1041623982722659</v>
+      </c>
+      <c r="Q16">
+        <v>0.1798523405783333</v>
+      </c>
+      <c r="R16">
+        <v>1.07911404347</v>
+      </c>
+      <c r="S16">
+        <v>0.00267214500581819</v>
+      </c>
+      <c r="T16">
+        <v>0.002583513371242611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.734263</v>
+      </c>
+      <c r="H17">
+        <v>2.202789</v>
+      </c>
+      <c r="I17">
+        <v>0.01822500330954492</v>
+      </c>
+      <c r="J17">
+        <v>0.02512235261537508</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.3296756666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.9890270000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1973398752343223</v>
+      </c>
+      <c r="P17">
+        <v>0.2076175725739006</v>
+      </c>
+      <c r="Q17">
+        <v>0.2420686440336667</v>
+      </c>
+      <c r="R17">
+        <v>2.178617796303</v>
+      </c>
+      <c r="S17">
+        <v>0.003596519879250704</v>
+      </c>
+      <c r="T17">
+        <v>0.005215841867349759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.734263</v>
+      </c>
+      <c r="H18">
+        <v>2.202789</v>
+      </c>
+      <c r="I18">
+        <v>0.01822500330954492</v>
+      </c>
+      <c r="J18">
+        <v>0.02512235261537508</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.5017509999999999</v>
+      </c>
+      <c r="N18">
+        <v>1.505253</v>
+      </c>
+      <c r="O18">
+        <v>0.3003420930026068</v>
+      </c>
+      <c r="P18">
+        <v>0.3159842693572386</v>
+      </c>
+      <c r="Q18">
+        <v>0.368417194513</v>
+      </c>
+      <c r="R18">
+        <v>3.315754750617</v>
+      </c>
+      <c r="S18">
+        <v>0.005473735638968156</v>
+      </c>
+      <c r="T18">
+        <v>0.007938268235704208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.734263</v>
+      </c>
+      <c r="H19">
+        <v>2.202789</v>
+      </c>
+      <c r="I19">
+        <v>0.01822500330954492</v>
+      </c>
+      <c r="J19">
+        <v>0.02512235261537508</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.203121</v>
+      </c>
+      <c r="N19">
+        <v>0.609363</v>
+      </c>
+      <c r="O19">
+        <v>0.1215857791469922</v>
+      </c>
+      <c r="P19">
+        <v>0.1279181123228686</v>
+      </c>
+      <c r="Q19">
+        <v>0.149144234823</v>
+      </c>
+      <c r="R19">
+        <v>1.342298113407</v>
+      </c>
+      <c r="S19">
+        <v>0.002215901227347531</v>
+      </c>
+      <c r="T19">
+        <v>0.003213603923668263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.734263</v>
+      </c>
+      <c r="H20">
+        <v>2.202789</v>
+      </c>
+      <c r="I20">
+        <v>0.01822500330954492</v>
+      </c>
+      <c r="J20">
+        <v>0.02512235261537508</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3879516666666666</v>
+      </c>
+      <c r="N20">
+        <v>1.163855</v>
+      </c>
+      <c r="O20">
+        <v>0.2322231855053928</v>
+      </c>
+      <c r="P20">
+        <v>0.2443176474737263</v>
+      </c>
+      <c r="Q20">
+        <v>0.2848585546216666</v>
+      </c>
+      <c r="R20">
+        <v>2.563726991595</v>
+      </c>
+      <c r="S20">
+        <v>0.004232268324388846</v>
+      </c>
+      <c r="T20">
+        <v>0.006137834089993854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.734263</v>
+      </c>
+      <c r="H21">
+        <v>2.202789</v>
+      </c>
+      <c r="I21">
+        <v>0.01822500330954492</v>
+      </c>
+      <c r="J21">
+        <v>0.02512235261537508</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.248099</v>
+      </c>
+      <c r="N21">
+        <v>0.496198</v>
+      </c>
+      <c r="O21">
+        <v>0.1485090671106859</v>
+      </c>
+      <c r="P21">
+        <v>0.1041623982722659</v>
+      </c>
+      <c r="Q21">
+        <v>0.182169916037</v>
+      </c>
+      <c r="R21">
+        <v>1.093019496222</v>
+      </c>
+      <c r="S21">
+        <v>0.002706578239589678</v>
+      </c>
+      <c r="T21">
+        <v>0.002616804498659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>33.1838825</v>
+      </c>
+      <c r="H22">
+        <v>66.36776499999999</v>
+      </c>
+      <c r="I22">
+        <v>0.8236508831114323</v>
+      </c>
+      <c r="J22">
+        <v>0.756910623134739</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.3296756666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.9890270000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.1973398752343223</v>
+      </c>
+      <c r="P22">
+        <v>0.2076175725739006</v>
+      </c>
+      <c r="Q22">
+        <v>10.93991858577583</v>
+      </c>
+      <c r="R22">
+        <v>65.639511514655</v>
+      </c>
+      <c r="S22">
+        <v>0.1625391625098494</v>
+      </c>
+      <c r="T22">
+        <v>0.1571479462306331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>33.1838825</v>
+      </c>
+      <c r="H23">
+        <v>66.36776499999999</v>
+      </c>
+      <c r="I23">
+        <v>0.8236508831114323</v>
+      </c>
+      <c r="J23">
+        <v>0.756910623134739</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.5017509999999999</v>
+      </c>
+      <c r="N23">
+        <v>1.505253</v>
+      </c>
+      <c r="O23">
+        <v>0.3003420930026068</v>
+      </c>
+      <c r="P23">
+        <v>0.3159842693572386</v>
+      </c>
+      <c r="Q23">
+        <v>16.65004622825749</v>
+      </c>
+      <c r="R23">
+        <v>99.90027736954498</v>
+      </c>
+      <c r="S23">
+        <v>0.247377030137133</v>
+      </c>
+      <c r="T23">
+        <v>0.2391718502199627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>33.1838825</v>
+      </c>
+      <c r="H24">
+        <v>66.36776499999999</v>
+      </c>
+      <c r="I24">
+        <v>0.8236508831114323</v>
+      </c>
+      <c r="J24">
+        <v>0.756910623134739</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.203121</v>
+      </c>
+      <c r="N24">
+        <v>0.609363</v>
+      </c>
+      <c r="O24">
+        <v>0.1215857791469922</v>
+      </c>
+      <c r="P24">
+        <v>0.1279181123228686</v>
+      </c>
+      <c r="Q24">
+        <v>6.740343397282499</v>
+      </c>
+      <c r="R24">
+        <v>40.44206038369499</v>
+      </c>
+      <c r="S24">
+        <v>0.1001442343682117</v>
+      </c>
+      <c r="T24">
+        <v>0.09682257810852204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>33.1838825</v>
+      </c>
+      <c r="H25">
+        <v>66.36776499999999</v>
+      </c>
+      <c r="I25">
+        <v>0.8236508831114323</v>
+      </c>
+      <c r="J25">
+        <v>0.756910623134739</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3879516666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.163855</v>
+      </c>
+      <c r="O25">
+        <v>0.2322231855053928</v>
+      </c>
+      <c r="P25">
+        <v>0.2443176474737263</v>
+      </c>
+      <c r="Q25">
+        <v>12.87374252234583</v>
+      </c>
+      <c r="R25">
+        <v>77.24245513407499</v>
+      </c>
+      <c r="S25">
+        <v>0.1912708318204667</v>
+      </c>
+      <c r="T25">
+        <v>0.1849266227921517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>33.1838825</v>
+      </c>
+      <c r="H26">
+        <v>66.36776499999999</v>
+      </c>
+      <c r="I26">
+        <v>0.8236508831114323</v>
+      </c>
+      <c r="J26">
+        <v>0.756910623134739</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.248099</v>
+      </c>
+      <c r="N26">
+        <v>0.496198</v>
+      </c>
+      <c r="O26">
+        <v>0.1485090671106859</v>
+      </c>
+      <c r="P26">
+        <v>0.1041623982722659</v>
+      </c>
+      <c r="Q26">
+        <v>8.232888064367499</v>
+      </c>
+      <c r="R26">
+        <v>32.93155225747</v>
+      </c>
+      <c r="S26">
+        <v>0.1223196242757714</v>
+      </c>
+      <c r="T26">
+        <v>0.07884162578346965</v>
       </c>
     </row>
   </sheetData>
